--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A131E34-FF40-2A48-A9AC-149F94395308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAE8BD-6301-8B4E-BABA-1DDC8DBD7E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="500" windowWidth="14120" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="393">
   <si>
     <t>username</t>
   </si>
@@ -218,13 +218,1015 @@
   </si>
   <si>
     <t>4k</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>ipad</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>credit card</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>bank transfer</t>
+  </si>
+  <si>
+    <t>1f5e30f8-5b8d-4d2f-b6b9-0a2b3a1b3d45</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>7b0e6f05-6bc3-4745-ae17-e8c58e07fd5e</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>6d78a51e-3f6f-4cf2-b1af-19d12a60d0d6</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>92d34712-2a21-4ab2-aeef-faad164c51f0</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>c76eddd2-559b-4b3c-b129-3e394198a4cc</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>f85bb23a-b4c8-4ccf-a3dc-4a8207518b46</t>
+  </si>
+  <si>
+    <t>Sarah Kim</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>1a76ff8e-6866-4745-8727-d60f6fc1f8d0</t>
+  </si>
+  <si>
+    <t>Christopher Wang</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>a92c9a89-6c8b-4155-a2d5-bf6d8b87654c</t>
+  </si>
+  <si>
+    <t>Amanda Nguyen</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>f5a054df-5a7e-4d38-a7db-94882f022b4a</t>
+  </si>
+  <si>
+    <t>Matthew Garcia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>e7f4f12c-249b-4cd4-bb7c-5ae8245a99a0</t>
+  </si>
+  <si>
+    <t>Jessica Martinez</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>3fd5ef2c-b6ab-474d-9868-52518b7a008e</t>
+  </si>
+  <si>
+    <t>Daniel Rodriguez</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>8b3e7ae2-ba69-4f36-9ad0-4f4b25574921</t>
+  </si>
+  <si>
+    <t>Ashley Perez</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>60b9e2aa-1467-44db-b5de-451d654355e0</t>
+  </si>
+  <si>
+    <t>William Hernandez</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>9fc0c3d3-72d6-4e82-b454-36ee83f9e0f0</t>
+  </si>
+  <si>
+    <t>Samantha Lopez</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>b84c5000-1c6b-4c61-9518-3428f3ec3c43</t>
+  </si>
+  <si>
+    <t>Joseph Flores</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>e2e0e1a5-45cc-4a28-97b0-2cf3b6cd7445</t>
+  </si>
+  <si>
+    <t>Olivia Gonzalez</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>4a92d2cb-5a0d-4291-9a68-f32a6d36c1cc</t>
+  </si>
+  <si>
+    <t>Ethan Ramirez</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>2e1a31c1-b5c7-42e7-b3e8-d4d4a5d97c15</t>
+  </si>
+  <si>
+    <t>Isabella Torres</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>5d9bbd4b-9380-4b0d-8758-48b0a47d9a38</t>
+  </si>
+  <si>
+    <t>Andrew Russell</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>36c4b9e7-bb13-4752-a684-9e49d9f190dc</t>
+  </si>
+  <si>
+    <t>Mia Collins</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>8fb9e670-ef6d-47b1-92ac-6d344f0f8fd1</t>
+  </si>
+  <si>
+    <t>James Cooper</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>7f93e6d7-1e5c-45d7-8d33-d358e2a7b9ef</t>
+  </si>
+  <si>
+    <t>Sophia Hughes</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>a89b79cb-2ef7-4720-903f-2d40902df5a2</t>
+  </si>
+  <si>
+    <t>Benjamin Stewart</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>3d650f12-f305-4bfb-af16-498c8968d962</t>
+  </si>
+  <si>
+    <t>Lily Murphy</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>6e3db063-202e-43b2-8a8f-ced5d2498e29</t>
+  </si>
+  <si>
+    <t>Mason Morgan</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>4e31539a-5a1d-4484-a2d6-f5fb1ec4a59a</t>
+  </si>
+  <si>
+    <t>Grace Scott</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>0a2f7918-5027-4c56-903e-9a02a6a39bfa</t>
+  </si>
+  <si>
+    <t>Lucas Peterson</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>1a3a22f7-178e-4f6e-9185-6e1c14710510</t>
+  </si>
+  <si>
+    <t>Chloe Foster</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>b2bdf9c5-8a6d-47f0-9d68-b31d2d31eabf</t>
+  </si>
+  <si>
+    <t>Alexander Kelly</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>f7d3e7e8-1ac3-40e1-93e2-61e7ec6c369c</t>
+  </si>
+  <si>
+    <t>Emma Bryant</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>896b631b-fac9-4a82-a2f8-22cf95126a60</t>
+  </si>
+  <si>
+    <t>Noah Woods</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>e4ab6ad3-5074-432d-a16d-0467ee1f512f</t>
+  </si>
+  <si>
+    <t>Mia Ward</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>92b0e861-bd9d-4993-b3e1-74e1f5ee73e9</t>
+  </si>
+  <si>
+    <t>Jacob Cox</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>e68838cf-8c3c-4b6e-b06a-8d0b0c9ff1da</t>
+  </si>
+  <si>
+    <t>Ava Griffin</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>5f91b631-0c0a-49f8-8cf1-447174ed0cb4</t>
+  </si>
+  <si>
+    <t>William Powell</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>d05ec2fb-3983-48a0-bb0e-5b301e19c16c</t>
+  </si>
+  <si>
+    <t>Harper Hayes</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>19e8bbdc-8c18-4967-93da-dbea1d8313e1</t>
+  </si>
+  <si>
+    <t>Ethan King</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>1df2a180-3bbf-4ba9-b75b-c4ef7640e36d</t>
+  </si>
+  <si>
+    <t>Zoe Bailey</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>6dc3f0f3-8ee6-4735-a0ed-46b4ac781e7b</t>
+  </si>
+  <si>
+    <t>Mason Wright</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>4ff497f3-9cf4-4f36-96b0-b8b6b183011e</t>
+  </si>
+  <si>
+    <t>Lily Brooks</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>5e297b4d-e76a-49aa-bd38-11b4212587f9</t>
+  </si>
+  <si>
+    <t>Logan Reed</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>2a3128f1-1275-4e69-8c3b-21c21cfed84c</t>
+  </si>
+  <si>
+    <t>Zoey Cox</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>a52fdaf7-5c85-4ec5-a4ee-9a0308d36d3a</t>
+  </si>
+  <si>
+    <t>Liam Nelson</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>6d16d487-6d6b-4b5c-89df-cab9bbfc7093</t>
+  </si>
+  <si>
+    <t>Leah Price</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>0e5b5aa7-9320-44f3-a016-1ad614a8c5e8</t>
+  </si>
+  <si>
+    <t>Jackson Murphy</t>
+  </si>
+  <si>
+    <t>2d0c0b8b-fb38-4c9b-a0c6-7a59f74f05fd</t>
+  </si>
+  <si>
+    <t>Abigail Rivera</t>
+  </si>
+  <si>
+    <t>78673a8b-e91b-49b6-89d1-d2f3d0a2b3ab</t>
+  </si>
+  <si>
+    <t>93564b36-5d70-4933-8107-d637c7c7321e</t>
+  </si>
+  <si>
+    <t>a2dbb8d4-1f62-4577-ba92-3c4242f4bea4</t>
+  </si>
+  <si>
+    <t>2f9eb9d0-1e10-453e-bf09-7ec5cbb10092</t>
+  </si>
+  <si>
+    <t>3cfec7d0-024e-4a2f-b990-1abfe3c22e56</t>
+  </si>
+  <si>
+    <t>45f48c92-fde8-4e62-9e6f-37060db1f24b</t>
+  </si>
+  <si>
+    <t>8652b3de-7ef0-4967-a9c7-d525e61e1943</t>
+  </si>
+  <si>
+    <t>a9a441e6-14bc-4fc9-ba0e-fb6d3b6cbefb</t>
+  </si>
+  <si>
+    <t>b2a4eddb-45f0-48b5-a731-13e58c949e10</t>
+  </si>
+  <si>
+    <t>7f6d22f2-7a44-4b79-b17d-1b54e89a31d5</t>
+  </si>
+  <si>
+    <t>89f646de-1866-414d-82f3-2b0d98a06f02</t>
+  </si>
+  <si>
+    <t>2bd504f7-1f1b-4f13-bf71-2450e2883cf5</t>
+  </si>
+  <si>
+    <t>7d65f1b9-4990-4c21-96ff-986301d19f96</t>
+  </si>
+  <si>
+    <t>2d2093ef-3d85-4433-a3ac-f141a3b10280</t>
+  </si>
+  <si>
+    <t>0c3ed079-e5e1-4a21-8b24-57f2febb5c86</t>
+  </si>
+  <si>
+    <t>9c4df0f0-897e-49c1-b80d-e675cda89e3e</t>
+  </si>
+  <si>
+    <t>49a95d3b-346f-4e88-a9d4-9ae7d60fc15a</t>
+  </si>
+  <si>
+    <t>0ee49509-6e95-49b3-b715-972868937c3f</t>
+  </si>
+  <si>
+    <t>7e4a4682-5e82-4d52-a75f-9ec00bf83f1c</t>
+  </si>
+  <si>
+    <t>8fde8371-c9e7-4d25-8194-4da791b7d51d</t>
+  </si>
+  <si>
+    <t>3f078684-b76c-45f6-9f49-23f2ff82b8bb</t>
+  </si>
+  <si>
+    <t>a76ff8e-6866-4745-8727-d60f6fc1f8d0</t>
+  </si>
+  <si>
+    <t>164c4142-3163-4e85-8b36-36b2b2e9c31c</t>
+  </si>
+  <si>
+    <t>The Hidden Village</t>
+  </si>
+  <si>
+    <t>A village hides a mystical secret from outsiders.</t>
+  </si>
+  <si>
+    <t>Discover the ancient village in the mountains.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer1.mp4</t>
+  </si>
+  <si>
+    <t>64a9a4bb-1f78-43c6-8d7b-df188b2b396f</t>
+  </si>
+  <si>
+    <t>Midnight Mysteries</t>
+  </si>
+  <si>
+    <t>Strange occurrences plague a small town at midnight.</t>
+  </si>
+  <si>
+    <t>Unravel the mysteries under the cover of darkness.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer2.mp4</t>
+  </si>
+  <si>
+    <t>52ab837e-ff35-4932-80b0-d00198ba2543</t>
+  </si>
+  <si>
+    <t>Echoes of Eternity</t>
+  </si>
+  <si>
+    <t>A tale of love and loss that spans across centuries.</t>
+  </si>
+  <si>
+    <t>Feel the echoes of love through time.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer3.mp4</t>
+  </si>
+  <si>
+    <t>7f011a9f-1d3f-4ef9-8a8e-72d1e443d194</t>
+  </si>
+  <si>
+    <t>Shadows of the Past</t>
+  </si>
+  <si>
+    <t>Ghosts from the past haunt the present.</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Confront the shadows that linger in the past.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer4.mp4</t>
+  </si>
+  <si>
+    <t>72d21279-3823-4f33-a64d-d63a5b0bfb11</t>
+  </si>
+  <si>
+    <t>Beyond the Horizon</t>
+  </si>
+  <si>
+    <t>Explorers venture into the unknown, seeking treasure.</t>
+  </si>
+  <si>
+    <t>Embark on an adventure beyond the horizon.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer5.mp4</t>
+  </si>
+  <si>
+    <t>68f41e8a-38fd-4e16-a59a-f4a4d0aa0c91</t>
+  </si>
+  <si>
+    <t>Whispers in the Dark</t>
+  </si>
+  <si>
+    <t>Secrets whispered in the darkness hold deadly truths.</t>
+  </si>
+  <si>
+    <t>Listen closely to the whispers in the night.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer6.mp4</t>
+  </si>
+  <si>
+    <t>67b9a84e-75e1-462e-93c3-3ff11095b898</t>
+  </si>
+  <si>
+    <t>Forgotten Realms</t>
+  </si>
+  <si>
+    <t>Lost worlds resurface, revealing ancient secrets.</t>
+  </si>
+  <si>
+    <t>Uncover the forgotten realms of ancient civilizations.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer7.mp4</t>
+  </si>
+  <si>
+    <t>5e567f84-6bcf-41d2-89c8-8d24b3b7f95e</t>
+  </si>
+  <si>
+    <t>Lost in Translation</t>
+  </si>
+  <si>
+    <t>Language barriers lead to comedic misunderstandings.</t>
+  </si>
+  <si>
+    <t>Get lost in translation with this hilarious comedy.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer8.mp4</t>
+  </si>
+  <si>
+    <t>7c24374a-9f6d-45df-8c02-5df825e255d7</t>
+  </si>
+  <si>
+    <t>Into the Abyss</t>
+  </si>
+  <si>
+    <t>Brave souls venture into the depths of the unknown.</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Dive into the abyss and face your fears.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer9.mp4</t>
+  </si>
+  <si>
+    <t>The Enigma</t>
+  </si>
+  <si>
+    <t>Mysteries unravel as ancient codes are deciphered.</t>
+  </si>
+  <si>
+    <t>Crack the enigma and unlock ancient secrets.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer10.mp4</t>
+  </si>
+  <si>
+    <t>Haunting Memories</t>
+  </si>
+  <si>
+    <t>Memories from the past return to haunt the present.</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Face your haunting memories in this psychological thriller.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer11.mp4</t>
+  </si>
+  <si>
+    <t>Bound by Fate</t>
+  </si>
+  <si>
+    <t>Two souls bound by fate struggle against destiny.</t>
+  </si>
+  <si>
+    <t>Can love conquer the forces of fate?</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer12.mp4</t>
+  </si>
+  <si>
+    <t>Edge of Tomorrow</t>
+  </si>
+  <si>
+    <t>Time loops and alternate realities collide in this sci-fi.</t>
+  </si>
+  <si>
+    <t>Break the cycle and change the course of history.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer13.mp4</t>
+  </si>
+  <si>
+    <t>Phantom Shadows</t>
+  </si>
+  <si>
+    <t>Shadows lurk in the darkness, hiding secrets untold.</t>
+  </si>
+  <si>
+    <t>Face your deepest fears in this chilling horror.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer14.mp4</t>
+  </si>
+  <si>
+    <t>Echoes of the Past</t>
+  </si>
+  <si>
+    <t>Echoes of the past reverberate through time and space.</t>
+  </si>
+  <si>
+    <t>Relive the echoes of history in this epic adventure.</t>
+  </si>
+  <si>
+    <t>https://example.com/trailer15.mp4</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>DreamWorks Animation</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>Warner Bros. Pictures</t>
+  </si>
+  <si>
+    <t>Universal Pictures</t>
+  </si>
+  <si>
+    <t>Columbia Pictures</t>
+  </si>
+  <si>
+    <t>Pixar Animation Studios</t>
+  </si>
+  <si>
+    <t>20th Century Studios</t>
+  </si>
+  <si>
+    <t>New Line Cinema</t>
+  </si>
+  <si>
+    <t>Walt Disney Pictures</t>
+  </si>
+  <si>
+    <t>Lionsgate</t>
+  </si>
+  <si>
+    <t>Metro-Goldwyn-Mayer (MGM)</t>
+  </si>
+  <si>
+    <t>Sony Pictures Entertainment (SPE)</t>
+  </si>
+  <si>
+    <t>Legendary Entertainment</t>
+  </si>
+  <si>
+    <t>Village Roadshow Pictures</t>
+  </si>
+  <si>
+    <t>Amblin Entertainment</t>
+  </si>
+  <si>
+    <t>http://example.com/film1.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film2.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film3.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film4.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film5.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film6.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film7.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film8.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film9.mp4</t>
+  </si>
+  <si>
+    <t>http://example.com/film10.mp4</t>
+  </si>
+  <si>
+    <t>Episode 1</t>
+  </si>
+  <si>
+    <t>The Beginning</t>
+  </si>
+  <si>
+    <t>http://example.com/episode1.mp4</t>
+  </si>
+  <si>
+    <t>Episode 2</t>
+  </si>
+  <si>
+    <t>The Journey Begins</t>
+  </si>
+  <si>
+    <t>http://example.com/episode2.mp4</t>
+  </si>
+  <si>
+    <t>Episode 3</t>
+  </si>
+  <si>
+    <t>The Challenges Ahead</t>
+  </si>
+  <si>
+    <t>http://example.com/episode3.mp4</t>
+  </si>
+  <si>
+    <t>Episode 4</t>
+  </si>
+  <si>
+    <t>Overcoming Adversity</t>
+  </si>
+  <si>
+    <t>http://example.com/episode4.mp4</t>
+  </si>
+  <si>
+    <t>Episode 5</t>
+  </si>
+  <si>
+    <t>Unraveling Mysteries</t>
+  </si>
+  <si>
+    <t>http://example.com/episode5.mp4</t>
+  </si>
+  <si>
+    <t>Episode 6</t>
+  </si>
+  <si>
+    <t>The Final Confrontation</t>
+  </si>
+  <si>
+    <t>http://example.com/episode6.mp4</t>
+  </si>
+  <si>
+    <t>A New Beginning</t>
+  </si>
+  <si>
+    <t>http://example.com/episode7.mp4</t>
+  </si>
+  <si>
+    <t>Facing the Unknown</t>
+  </si>
+  <si>
+    <t>http://example.com/episode8.mp4</t>
+  </si>
+  <si>
+    <t>The Plot Thickens</t>
+  </si>
+  <si>
+    <t>http://example.com/episode9.mp4</t>
+  </si>
+  <si>
+    <t>Climbing the Mountain</t>
+  </si>
+  <si>
+    <t>http://example.com/episode10.mp4</t>
+  </si>
+  <si>
+    <t>Confronting the Enemy</t>
+  </si>
+  <si>
+    <t>http://example.com/episode11.mp4</t>
+  </si>
+  <si>
+    <t>The Final Showdown</t>
+  </si>
+  <si>
+    <t>http://example.com/episode12.mp4</t>
+  </si>
+  <si>
+    <t>Great animation and storyline!</t>
+  </si>
+  <si>
+    <t>Absolutely loved it!</t>
+  </si>
+  <si>
+    <t>Decent but could be better.</t>
+  </si>
+  <si>
+    <t>Enjoyable and entertaining.</t>
+  </si>
+  <si>
+    <t>Fantastic! Must watch.</t>
+  </si>
+  <si>
+    <t>Great soundtrack!</t>
+  </si>
+  <si>
+    <t>Average, nothing special.</t>
+  </si>
+  <si>
+    <t>Brilliantly done!</t>
+  </si>
+  <si>
+    <t>Amazing plot twists!</t>
+  </si>
+  <si>
+    <t>Intriguing storyline.</t>
+  </si>
+  <si>
+    <t>Not bad, but expected more.</t>
+  </si>
+  <si>
+    <t>Kept me hooked till the end.</t>
+  </si>
+  <si>
+    <t>Must-watch for mystery lovers.</t>
+  </si>
+  <si>
+    <t>Beautifully shot scenes.</t>
+  </si>
+  <si>
+    <t>Decent but not outstanding.</t>
+  </si>
+  <si>
+    <t>Riveting from start to finish.</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>The Avengers</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>The Shawshank Redemption</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>The Dark Knight</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>Fight Club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -247,6 +1249,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.75"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -319,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -346,6 +1391,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -660,9 +1723,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -672,6 +1737,414 @@
       </c>
       <c r="B1" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +2157,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -698,6 +2171,286 @@
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +2463,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -724,6 +2477,86 @@
       </c>
       <c r="B1" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -736,15 +2569,92 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -757,11 +2667,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="21"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -781,6 +2696,386 @@
       </c>
       <c r="F1" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="22">
+        <v>45458</v>
+      </c>
+      <c r="D2" s="19">
+        <v>120</v>
+      </c>
+      <c r="E2" s="19">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="22">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="22">
+        <v>45493</v>
+      </c>
+      <c r="D3" s="19">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="22">
+        <v>45509</v>
+      </c>
+      <c r="D4" s="19">
+        <v>110</v>
+      </c>
+      <c r="E4" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="22">
+        <v>45534</v>
+      </c>
+      <c r="D5" s="19">
+        <v>100</v>
+      </c>
+      <c r="E5" s="19">
+        <v>55000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="22">
+        <v>45550</v>
+      </c>
+      <c r="D6" s="19">
+        <v>95</v>
+      </c>
+      <c r="E6" s="19">
+        <v>45000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="22">
+        <v>45570</v>
+      </c>
+      <c r="D7" s="19">
+        <v>105</v>
+      </c>
+      <c r="E7" s="19">
+        <v>58000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="22">
+        <v>45597</v>
+      </c>
+      <c r="D8" s="19">
+        <v>80</v>
+      </c>
+      <c r="E8" s="19">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="22">
+        <v>45616</v>
+      </c>
+      <c r="D9" s="19">
+        <v>115</v>
+      </c>
+      <c r="E9" s="19">
+        <v>62000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="22">
+        <v>45636</v>
+      </c>
+      <c r="D10" s="19">
+        <v>125</v>
+      </c>
+      <c r="E10" s="19">
+        <v>68000</v>
+      </c>
+      <c r="F10" s="22">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="22">
+        <v>45662</v>
+      </c>
+      <c r="D11" s="19">
+        <v>90</v>
+      </c>
+      <c r="E11" s="19">
+        <v>40000</v>
+      </c>
+      <c r="F11" s="22">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="22">
+        <v>45689</v>
+      </c>
+      <c r="D12" s="19">
+        <v>105</v>
+      </c>
+      <c r="E12" s="19">
+        <v>55000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="22">
+        <v>45708</v>
+      </c>
+      <c r="D13" s="19">
+        <v>110</v>
+      </c>
+      <c r="E13" s="19">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="22">
+        <v>45726</v>
+      </c>
+      <c r="D14" s="19">
+        <v>95</v>
+      </c>
+      <c r="E14" s="19">
+        <v>45000</v>
+      </c>
+      <c r="F14" s="22">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="22">
+        <v>45752</v>
+      </c>
+      <c r="D15" s="19">
+        <v>85</v>
+      </c>
+      <c r="E15" s="19">
+        <v>37000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="22">
+        <v>45767</v>
+      </c>
+      <c r="D16" s="19">
+        <v>120</v>
+      </c>
+      <c r="E16" s="19">
+        <v>62000</v>
+      </c>
+      <c r="F16" s="22">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="22">
+        <v>45787</v>
+      </c>
+      <c r="D17" s="19">
+        <v>110</v>
+      </c>
+      <c r="E17" s="19">
+        <v>58000</v>
+      </c>
+      <c r="F17" s="22">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="22">
+        <v>45813</v>
+      </c>
+      <c r="D18" s="19">
+        <v>100</v>
+      </c>
+      <c r="E18" s="19">
+        <v>53000</v>
+      </c>
+      <c r="F18" s="22">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="22">
+        <v>45828</v>
+      </c>
+      <c r="D19" s="19">
+        <v>95</v>
+      </c>
+      <c r="E19" s="19">
+        <v>48000</v>
+      </c>
+      <c r="F19" s="22">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="22">
+        <v>45843</v>
+      </c>
+      <c r="D20" s="19">
+        <v>115</v>
+      </c>
+      <c r="E20" s="19">
+        <v>65000</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45858</v>
       </c>
     </row>
   </sheetData>
@@ -793,15 +3088,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +3136,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -834,6 +3156,146 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45488</v>
+      </c>
+      <c r="D2" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45524</v>
+      </c>
+      <c r="D3" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45560</v>
+      </c>
+      <c r="D4" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45595</v>
+      </c>
+      <c r="D5" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45631</v>
+      </c>
+      <c r="D6" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45667</v>
+      </c>
+      <c r="D7" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45703</v>
+      </c>
+      <c r="D8" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45736</v>
+      </c>
+      <c r="D9" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45772</v>
+      </c>
+      <c r="D10" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45807</v>
+      </c>
+      <c r="D11" s="11">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -846,10 +3308,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -872,6 +3334,246 @@
       </c>
       <c r="F1" s="5" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="11">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="11">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="11">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="11">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="11">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="12">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="11">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="11">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="11">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="11">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="11">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45551</v>
       </c>
     </row>
   </sheetData>
@@ -884,10 +3586,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -907,6 +3609,278 @@
       </c>
       <c r="E1" s="8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45474.354166666664</v>
+      </c>
+      <c r="D2" s="11">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45476.40625</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45478.430555555555</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45480.496527777781</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45482.548611111109</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45484.600694444445</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="13">
+        <v>45486.652777777781</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45488.704861111109</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45505.4375</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45507.489583333336</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>45509.513888888891</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45511.579861111109</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="13">
+        <v>45513.631944444445</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="13">
+        <v>45515.684027777781</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13">
+        <v>45517.736111111109</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13">
+        <v>45519.788194444445</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +3893,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -936,6 +3910,182 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45474.354166666664</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45476.40625</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45478.430555555555</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45480.496527777781</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45505.4375</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="13">
+        <v>45507.489583333336</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="13">
+        <v>45509.513888888891</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="13">
+        <v>45511.579861111109</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="13">
+        <v>45534.604166666664</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="13">
+        <v>45536.65625</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="13">
+        <v>45538.680555555555</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="13">
+        <v>45540.746527777781</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="13">
+        <v>45550.770833333336</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="13">
+        <v>45552.822916666664</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="13">
+        <v>45554.847222222219</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="13">
+        <v>45556.913194444445</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +4101,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1010,10 +4160,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1027,6 +4177,182 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
+        <v>45474.354166666664</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>45476.40625</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>45478.430555555555</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>45480.496527777781</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>45505.4375</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>45507.489583333336</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>45509.513888888891</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>45511.579861111109</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>45534.604166666664</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>45536.65625</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>45538.680555555555</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
+        <v>45540.746527777781</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>45550.770833333336</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>45552.822916666664</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>45554.847222222219</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>45556.913194444445</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +4365,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1059,6 +4385,286 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45474.333333333336</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45474.395833333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45476.385416666664</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45476.447916666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45478.423611111109</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45478.486111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45480.489583333336</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45480.552083333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45505.430555555555</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45505.493055555555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45507.479166666664</v>
+      </c>
+      <c r="D7" s="13">
+        <v>45507.541666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13">
+        <v>45509.510416666664</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45509.572916666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45511.569444444445</v>
+      </c>
+      <c r="D9" s="13">
+        <v>45511.631944444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45534.590277777781</v>
+      </c>
+      <c r="D10" s="13">
+        <v>45534.652777777781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45536.642361111109</v>
+      </c>
+      <c r="D11" s="13">
+        <v>45536.704861111109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13">
+        <v>45538.673611111109</v>
+      </c>
+      <c r="D12" s="13">
+        <v>45538.736111111109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45540.732638888891</v>
+      </c>
+      <c r="D13" s="13">
+        <v>45540.795138888891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="13">
+        <v>45550.763888888891</v>
+      </c>
+      <c r="D14" s="13">
+        <v>45550.826388888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="13">
+        <v>45552.815972222219</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45552.878472222219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13">
+        <v>45554.854166666664</v>
+      </c>
+      <c r="D16" s="13">
+        <v>45554.916666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="13">
+        <v>45556.90625</v>
+      </c>
+      <c r="D17" s="13">
+        <v>45556.96875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="13">
+        <v>45474.333333333336</v>
+      </c>
+      <c r="D18" s="13">
+        <v>45474.395833333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13">
+        <v>45476.385416666664</v>
+      </c>
+      <c r="D19" s="13">
+        <v>45476.447916666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13">
+        <v>45478.423611111109</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45478.486111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="13">
+        <v>45480.489583333336</v>
+      </c>
+      <c r="D21" s="13">
+        <v>45480.552083333336</v>
       </c>
     </row>
   </sheetData>
@@ -1071,13 +4677,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="23"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1088,6 +4697,336 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="25">
+        <v>45474.354166666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25">
+        <v>45476.40625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="25">
+        <v>45478.430555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="25">
+        <v>45480.496527777781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="25">
+        <v>45505.4375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="25">
+        <v>45507.489583333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="25">
+        <v>45509.513888888891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="25">
+        <v>45511.579861111109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="25">
+        <v>45534.604166666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25">
+        <v>45536.65625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="25">
+        <v>45538.680555555555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="25">
+        <v>45540.746527777781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="25">
+        <v>45550.770833333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="25">
+        <v>45552.822916666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="25">
+        <v>45554.847222222219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="25">
+        <v>45556.913194444445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="25">
+        <v>45474.354166666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="25">
+        <v>45476.40625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="25">
+        <v>45478.430555555555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="25">
+        <v>45480.496527777781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="25">
+        <v>45534.614583333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="25">
+        <v>45536.631944444445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="25">
+        <v>45538.690972222219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="25">
+        <v>45540.722222222219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="25">
+        <v>45550.788194444445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="25">
+        <v>45552.805555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="25">
+        <v>45554.864583333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="25">
+        <v>45556.881944444445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="25">
+        <v>45474.371527777781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="25">
+        <v>45476.388888888891</v>
       </c>
     </row>
   </sheetData>
@@ -1100,10 +5039,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1114,6 +5053,70 @@
       </c>
       <c r="B1" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1126,10 +5129,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1152,6 +5155,486 @@
       </c>
       <c r="F1" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45383</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="13">
+        <v>45384.3440162037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45387</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45407</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45388.521354166667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="12">
+        <v>45392</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45393.597650462965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12">
+        <v>45385</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45410</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45386.406388888892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45397</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45398.705196759256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45389</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45390.423819444448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45384</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45385.476087962961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45402</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45403.570092592592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45392</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45393.3440162037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12">
+        <v>45384</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45385.521354166667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="12">
+        <v>45394</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45395.597650462965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12">
+        <v>45390</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45391.406388888892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45400</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45401.705196759256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12">
+        <v>45387</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45388.423819444448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12">
+        <v>45395</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45396.476087962961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="12">
+        <v>45407</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45408.570092592592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="12">
+        <v>45397</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45398.3440162037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12">
+        <v>45386</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45387.521354166667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12">
+        <v>45396</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45397.597650462965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="12">
+        <v>45388</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45389.406388888892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12">
+        <v>45403</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45404.705196759256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12">
+        <v>45391</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45392.423819444448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="12">
+        <v>45399</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45400.476087962961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="12">
+        <v>45404</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45412</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45405.570092592592</v>
       </c>
     </row>
   </sheetData>
@@ -1164,10 +5647,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1184,6 +5667,944 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1196,15 +6617,170 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1217,15 +6793,217 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="19" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1238,15 +7016,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1259,13 +7089,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="21"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1293,6 +7126,396 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="22">
+        <v>45413</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="22">
+        <v>45458</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="22">
+        <v>45493</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="22">
+        <v>45514</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="22">
+        <v>45577</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="22">
+        <v>45614</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="22">
+        <v>45664</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="22">
+        <v>45703</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="22">
+        <v>45736</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="22">
+        <v>45772</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="22">
+        <v>45807</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45818</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" s="22">
+        <v>45853</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="22">
+        <v>45889</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECAE8BD-6301-8B4E-BABA-1DDC8DBD7E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAE059-4CF6-0042-A378-1AD865A95B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="393">
   <si>
     <t>username</t>
   </si>
@@ -1364,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1387,9 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1630,7 +1627,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1650,67 +1647,91 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1740,410 +1761,410 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2174,282 +2195,282 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2480,82 +2501,82 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>305</v>
       </c>
     </row>
@@ -2583,77 +2604,77 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2675,7 +2696,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="21"/>
+    <col min="1" max="16384" width="12.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2699,382 +2720,382 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>45458</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>120</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>50000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>45474</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>45493</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>90</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>40000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>45514</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>45509</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>110</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>60000</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>45529</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>45534</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>100</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>55000</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>45550</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>45550</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>95</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>45000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>45566</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>45570</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>105</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>58000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>45585</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>45597</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>80</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>35000</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>45611</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>45616</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>115</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>62000</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>45631</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>45636</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>125</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>68000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>45651</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>45662</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>90</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>40000</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>45677</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>45689</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>105</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>55000</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>45703</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>45708</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>110</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>60000</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>45721</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>45726</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>95</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>45000</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>45741</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>45752</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>85</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>37000</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>45767</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>45767</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>120</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>62000</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>45782</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>45787</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>110</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>58000</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>45802</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>45813</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>100</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>53000</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>45828</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>45828</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>95</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>48000</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>45843</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>45843</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>115</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>65000</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>45858</v>
       </c>
     </row>
@@ -3102,27 +3123,27 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3138,7 +3159,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3159,142 +3180,142 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>45488</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>45524</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>45560</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>45595</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>45631</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>45667</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>45703</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>45736</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>45772</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>45807</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>65</v>
       </c>
     </row>
@@ -3337,242 +3358,242 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>30</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>45474</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>45481</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>30</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>45488</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>35</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>45495</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>45502</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>35</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>45509</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>45516</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>45523</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>40</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>45530</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>45537</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>40</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>45544</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>45551</v>
       </c>
     </row>
@@ -3612,274 +3633,274 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>45474.354166666664</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>45476.40625</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>45478.430555555555</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>45480.496527777781</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>45482.548611111109</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45484.600694444445</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45486.652777777781</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45488.704861111109</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>45505.4375</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45507.489583333336</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45509.513888888891</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45511.579861111109</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>45513.631944444445</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>5</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45515.684027777781</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>4</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>45517.736111111109</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45519.788194444445</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>5</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3913,178 +3934,178 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>45474.354166666664</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>45476.40625</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>45478.430555555555</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>45480.496527777781</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>45505.4375</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>45507.489583333336</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>45509.513888888891</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>45511.579861111109</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>45534.604166666664</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>45536.65625</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>45538.680555555555</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>45540.746527777781</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>45550.770833333336</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>45552.822916666664</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>45554.847222222219</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>45556.913194444445</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4180,178 +4201,178 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>45474.354166666664</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>45476.40625</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>45478.430555555555</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>45480.496527777781</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>45505.4375</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>45507.489583333336</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>45509.513888888891</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>45511.579861111109</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>45534.604166666664</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>45536.65625</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>45538.680555555555</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>45540.746527777781</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>45550.770833333336</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>45552.822916666664</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>45554.847222222219</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>45556.913194444445</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4388,282 +4409,282 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>45474.333333333336</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>45474.395833333336</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>45476.385416666664</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>45476.447916666664</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>45478.423611111109</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>45478.486111111109</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>45480.489583333336</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>45480.552083333336</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>45505.430555555555</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>45505.493055555555</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45507.479166666664</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>45507.541666666664</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45509.510416666664</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>45509.572916666664</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45511.569444444445</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>45511.631944444445</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>45534.590277777781</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>45534.652777777781</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45536.642361111109</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>45536.704861111109</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45538.673611111109</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>45538.736111111109</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45540.732638888891</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>45540.795138888891</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>45550.763888888891</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>45550.826388888891</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45552.815972222219</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>45552.878472222219</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>45554.854166666664</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>45554.916666666664</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45556.90625</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>45556.96875</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>45474.333333333336</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>45474.395833333336</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>45476.385416666664</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>45476.447916666664</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>45478.423611111109</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>45478.486111111109</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>45480.489583333336</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>45480.552083333336</v>
       </c>
     </row>
@@ -4679,13 +4700,13 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="23"/>
+    <col min="1" max="16384" width="12.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4700,332 +4721,332 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>45474.354166666664</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>45476.40625</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>45478.430555555555</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>45480.496527777781</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>45505.4375</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>45507.489583333336</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>45509.513888888891</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>45511.579861111109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>45534.604166666664</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>45536.65625</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>45538.680555555555</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>45540.746527777781</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>45550.770833333336</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>45552.822916666664</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>45554.847222222219</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>45556.913194444445</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>45474.354166666664</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>45476.40625</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>45478.430555555555</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>45480.496527777781</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>45534.614583333336</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>45536.631944444445</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>45538.690972222219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>45540.722222222219</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>45550.788194444445</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>45552.805555555555</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>45554.864583333336</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>45556.881944444445</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>45474.371527777781</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>45476.388888888891</v>
       </c>
     </row>
@@ -5080,7 +5101,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5088,34 +5109,34 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5131,8 +5152,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5158,482 +5179,482 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>45383</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>45412</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>45384.3440162037</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>45387</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>45407</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>45388.521354166667</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>45392</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>45412</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>45393.597650462965</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>45385</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>45410</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>45386.406388888892</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45397</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>45412</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>45398.705196759256</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>45389</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>45412</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>45390.423819444448</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>45384</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>45412</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>45385.476087962961</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>45402</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>45412</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>45403.570092592592</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>45392</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>45412</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>45393.3440162037</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>45384</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>45412</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>45385.521354166667</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>45394</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>45412</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>45395.597650462965</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>45390</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>45412</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>45391.406388888892</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>45400</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>45412</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>45401.705196759256</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>45387</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>45412</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>45388.423819444448</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>45395</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>45412</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>45396.476087962961</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>45407</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>45412</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>45408.570092592592</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>45397</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>45412</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>45398.3440162037</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>45386</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>45412</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>45387.521354166667</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>45396</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>45412</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>45397.597650462965</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>45388</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>45412</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>45389.406388888892</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>45403</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>45412</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>45404.705196759256</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>45391</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>45412</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>45392.423819444448</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>45399</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>45412</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>45400.476087962961</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>45404</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>45412</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>45405.570092592592</v>
       </c>
     </row>
@@ -5670,940 +5691,940 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>0</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>0</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>1</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>0</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>1</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>0</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>1</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>0</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>0</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>0</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>0</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>0</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>1</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>0</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>1</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>0</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>1</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>0</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>1</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>0</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>1</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>0</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>1</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>0</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>1</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>0</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>0</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>0</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>1</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>0</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>1</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>0</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>1</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>0</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>1</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>0</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>1</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="10">
         <v>0</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <v>1</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>0</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <v>1</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <v>0</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <v>1</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="10">
         <v>0</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6625,161 +6646,161 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="16"/>
+    <col min="1" max="16384" width="12.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6795,8 +6816,8 @@
   </sheetPr>
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6807,202 +6828,202 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7018,8 +7039,8 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7030,52 +7051,52 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7097,7 +7118,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="21"/>
+    <col min="1" max="16384" width="12.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7127,392 +7148,392 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>45413</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>45458</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>45493</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>45514</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>45540</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>45577</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>45614</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>45664</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>45703</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>45736</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>45772</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>45807</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>45818</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>45853</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>45889</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>126</v>
       </c>
     </row>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAE059-4CF6-0042-A378-1AD865A95B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02F62CC-B3A4-9B40-9226-3597EC832B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -1626,7 +1626,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -6641,7 +6641,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6816,7 +6816,7 @@
   </sheetPr>
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7039,8 +7039,8 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02F62CC-B3A4-9B40-9226-3597EC832B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D471619-70B3-7E46-AC3E-D0ED240E4B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="393">
   <si>
     <t>username</t>
   </si>
@@ -1364,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1406,6 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,7 +1627,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2688,10 +2689,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2907,7 +2908,7 @@
         <v>234</v>
       </c>
       <c r="C11" s="21">
-        <v>45662</v>
+        <v>45296</v>
       </c>
       <c r="D11" s="18">
         <v>90</v>
@@ -2927,7 +2928,7 @@
         <v>224</v>
       </c>
       <c r="C12" s="21">
-        <v>45689</v>
+        <v>45323</v>
       </c>
       <c r="D12" s="18">
         <v>105</v>
@@ -2947,7 +2948,7 @@
         <v>255</v>
       </c>
       <c r="C13" s="21">
-        <v>45708</v>
+        <v>45342</v>
       </c>
       <c r="D13" s="18">
         <v>110</v>
@@ -2967,7 +2968,7 @@
         <v>250</v>
       </c>
       <c r="C14" s="21">
-        <v>45726</v>
+        <v>44995</v>
       </c>
       <c r="D14" s="18">
         <v>95</v>
@@ -2987,7 +2988,7 @@
         <v>265</v>
       </c>
       <c r="C15" s="21">
-        <v>45752</v>
+        <v>45387</v>
       </c>
       <c r="D15" s="18">
         <v>85</v>
@@ -3007,7 +3008,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="21">
-        <v>45767</v>
+        <v>45402</v>
       </c>
       <c r="D16" s="18">
         <v>120</v>
@@ -3027,7 +3028,7 @@
         <v>234</v>
       </c>
       <c r="C17" s="21">
-        <v>45787</v>
+        <v>45422</v>
       </c>
       <c r="D17" s="18">
         <v>110</v>
@@ -3047,7 +3048,7 @@
         <v>224</v>
       </c>
       <c r="C18" s="21">
-        <v>45813</v>
+        <v>45448</v>
       </c>
       <c r="D18" s="18">
         <v>100</v>
@@ -3067,7 +3068,7 @@
         <v>255</v>
       </c>
       <c r="C19" s="21">
-        <v>45828</v>
+        <v>45463</v>
       </c>
       <c r="D19" s="18">
         <v>95</v>
@@ -3087,7 +3088,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="21">
-        <v>45843</v>
+        <v>45478</v>
       </c>
       <c r="D20" s="18">
         <v>115</v>
@@ -3099,8 +3100,29 @@
         <v>45858</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="25">
+        <v>45307</v>
+      </c>
+      <c r="D21" s="20">
+        <v>112</v>
+      </c>
+      <c r="E21" s="20">
+        <v>80000</v>
+      </c>
+      <c r="F21" s="25">
+        <v>45535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4122,7 +4144,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4143,7 +4165,7 @@
         <v>55</v>
       </c>
       <c r="B2">
-        <v>355999</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
@@ -4154,7 +4176,7 @@
         <v>56</v>
       </c>
       <c r="B3">
-        <v>159999</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1080</v>
@@ -4165,7 +4187,7 @@
         <v>57</v>
       </c>
       <c r="B4">
-        <v>79999</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>720</v>
@@ -4700,7 +4722,7 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5670,7 +5692,7 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -6816,7 +6838,7 @@
   </sheetPr>
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7040,7 +7062,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7113,7 +7135,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D471619-70B3-7E46-AC3E-D0ED240E4B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB1B1E-4EC4-1744-9FE3-32820130F128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="399">
   <si>
     <t>username</t>
   </si>
@@ -1220,6 +1220,24 @@
   </si>
   <si>
     <t>Fight Club</t>
+  </si>
+  <si>
+    <t>2a76ff8e-6866-4745-8727-d60f6fc1f8d0</t>
+  </si>
+  <si>
+    <t>67b9a84e-75e1-462e-93c3-3ff11095b897</t>
+  </si>
+  <si>
+    <t>67b9a84e-75e1-462e-93c3-3ff11095b899</t>
+  </si>
+  <si>
+    <t>68f41e8a-38fd-4e16-a59a-f4a4d0aa0c92</t>
+  </si>
+  <si>
+    <t>7c24374a-9f6d-45df-8c02-5df825e255d8</t>
+  </si>
+  <si>
+    <t>60b9e2aa-1467-44db-b5de-451d654355e1</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1407,6 +1425,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1628,7 +1647,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1655,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1699,7 +1718,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1747,8 +1766,8 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1762,412 +1781,408 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>102</v>
+      <c r="B51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4411,7 +4426,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4662,10 +4677,10 @@
         <v>39</v>
       </c>
       <c r="C18" s="12">
-        <v>45474.333333333336</v>
+        <v>45475.333333333336</v>
       </c>
       <c r="D18" s="12">
-        <v>45474.395833333336</v>
+        <v>45475.395833333336</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4722,8 +4737,8 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5085,7 +5100,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5119,7 +5134,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5692,8 +5707,8 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6663,7 +6678,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6838,8 +6853,8 @@
   </sheetPr>
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7046,7 +7061,7 @@
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>223</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7135,7 +7150,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7327,7 +7342,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>255</v>
+        <v>394</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>256</v>
@@ -7405,7 +7420,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>271</v>
@@ -7457,7 +7472,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>280</v>
@@ -7483,7 +7498,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>284</v>
@@ -7535,7 +7550,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>292</v>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB1B1E-4EC4-1744-9FE3-32820130F128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC97A18-E913-4F4B-B232-5368A9C298D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="402">
   <si>
     <t>username</t>
   </si>
@@ -712,9 +712,6 @@
     <t>3f078684-b76c-45f6-9f49-23f2ff82b8bb</t>
   </si>
   <si>
-    <t>a76ff8e-6866-4745-8727-d60f6fc1f8d0</t>
-  </si>
-  <si>
     <t>164c4142-3163-4e85-8b36-36b2b2e9c31c</t>
   </si>
   <si>
@@ -1238,13 +1235,25 @@
   </si>
   <si>
     <t>60b9e2aa-1467-44db-b5de-451d654355e1</t>
+  </si>
+  <si>
+    <t>7c24374a-9f6d-45df-8c02-5df825e255d9</t>
+  </si>
+  <si>
+    <t>67b9a84e-75e1-462e-93c3-3ff11095b900</t>
+  </si>
+  <si>
+    <t>67b9a84e-75e1-462e-93c3-3ff11095b901</t>
+  </si>
+  <si>
+    <t>60b9e2aa-1467-44db-b5de-451d654355e2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1316,6 +1325,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1382,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1426,6 +1456,11 @@
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1685,7 +1720,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1696,7 +1731,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1707,7 +1742,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1718,7 +1753,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1729,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1740,7 +1775,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1766,8 +1801,8 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1782,7 +1817,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>221</v>
@@ -1790,7 +1825,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>111</v>
@@ -1798,7 +1833,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>141</v>
@@ -1806,7 +1841,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>168</v>
@@ -1814,7 +1849,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>177</v>
@@ -1822,7 +1857,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>129</v>
@@ -1830,7 +1865,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>126</v>
@@ -1838,7 +1873,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>219</v>
@@ -1846,7 +1881,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>96</v>
@@ -1854,7 +1889,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>120</v>
@@ -1862,7 +1897,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>202</v>
@@ -1870,7 +1905,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>102</v>
@@ -1878,7 +1913,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>209</v>
@@ -1894,7 +1929,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>222</v>
@@ -1902,7 +1937,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>189</v>
@@ -1910,7 +1945,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>147</v>
@@ -1918,7 +1953,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>220</v>
@@ -1926,7 +1961,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>159</v>
@@ -1934,7 +1969,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>203</v>
@@ -1942,7 +1977,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>186</v>
@@ -1950,7 +1985,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>183</v>
@@ -1958,7 +1993,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>213</v>
@@ -1966,7 +2001,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>132</v>
@@ -1974,7 +2009,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>117</v>
@@ -1982,7 +2017,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>205</v>
@@ -1990,7 +2025,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>84</v>
@@ -1998,7 +2033,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>144</v>
@@ -2014,7 +2049,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>214</v>
@@ -2022,7 +2057,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
         <v>204</v>
@@ -2030,7 +2065,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
@@ -2038,7 +2073,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
         <v>108</v>
@@ -2046,7 +2081,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -2054,7 +2089,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -2062,7 +2097,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
         <v>206</v>
@@ -2070,7 +2105,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B38" t="s">
         <v>138</v>
@@ -2078,7 +2113,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
         <v>200</v>
@@ -2086,7 +2121,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s">
         <v>162</v>
@@ -2094,15 +2129,15 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
         <v>144</v>
@@ -2110,7 +2145,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s">
         <v>215</v>
@@ -2118,7 +2153,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s">
         <v>214</v>
@@ -2128,13 +2163,13 @@
       <c r="A45" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
-        <v>223</v>
+      <c r="B45" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s">
         <v>219</v>
@@ -2142,7 +2177,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
         <v>213</v>
@@ -2150,7 +2185,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
         <v>132</v>
@@ -2158,7 +2193,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
@@ -2166,7 +2201,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
         <v>205</v>
@@ -2174,7 +2209,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
@@ -2212,7 +2247,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>66</v>
@@ -2220,7 +2255,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>126</v>
@@ -2228,7 +2263,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>102</v>
@@ -2236,7 +2271,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>177</v>
@@ -2244,7 +2279,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>126</v>
@@ -2252,7 +2287,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>102</v>
@@ -2260,7 +2295,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>66</v>
@@ -2268,7 +2303,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>129</v>
@@ -2284,7 +2319,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>222</v>
@@ -2292,7 +2327,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>69</v>
@@ -2300,7 +2335,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>111</v>
@@ -2308,7 +2343,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>177</v>
@@ -2316,7 +2351,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>159</v>
@@ -2332,7 +2367,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>66</v>
@@ -2340,7 +2375,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>126</v>
@@ -2348,7 +2383,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>102</v>
@@ -2356,7 +2391,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>66</v>
@@ -2364,7 +2399,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>126</v>
@@ -2372,7 +2407,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>222</v>
@@ -2380,7 +2415,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>66</v>
@@ -2388,7 +2423,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>129</v>
@@ -2396,7 +2431,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>126</v>
@@ -2404,7 +2439,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>222</v>
@@ -2420,7 +2455,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>69</v>
@@ -2428,7 +2463,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>111</v>
@@ -2436,7 +2471,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>69</v>
@@ -2444,7 +2479,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>177</v>
@@ -2460,7 +2495,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>111</v>
@@ -2468,7 +2503,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>129</v>
@@ -2476,7 +2511,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>159</v>
@@ -2484,7 +2519,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>222</v>
@@ -2518,82 +2553,82 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2621,77 +2656,77 @@
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +2772,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="21">
         <v>45458</v>
@@ -2757,10 +2792,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="21">
         <v>45493</v>
@@ -2777,10 +2812,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="21">
         <v>45509</v>
@@ -2797,10 +2832,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="21">
         <v>45534</v>
@@ -2817,10 +2852,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="21">
         <v>45550</v>
@@ -2837,10 +2872,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="21">
         <v>45570</v>
@@ -2857,10 +2892,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="21">
         <v>45597</v>
@@ -2877,10 +2912,10 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="21">
         <v>45616</v>
@@ -2897,7 +2932,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>102</v>
@@ -2917,10 +2952,10 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="21">
         <v>45296</v>
@@ -2937,10 +2972,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="21">
         <v>45323</v>
@@ -2957,10 +2992,10 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="21">
         <v>45342</v>
@@ -2977,10 +3012,10 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="21">
         <v>44995</v>
@@ -2997,10 +3032,10 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="21">
         <v>45387</v>
@@ -3017,7 +3052,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>102</v>
@@ -3037,10 +3072,10 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="21">
         <v>45422</v>
@@ -3057,10 +3092,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="21">
         <v>45448</v>
@@ -3077,10 +3112,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="21">
         <v>45463</v>
@@ -3097,10 +3132,10 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" s="21">
         <v>45478</v>
@@ -3117,10 +3152,10 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="25">
         <v>45307</v>
@@ -3148,40 +3183,43 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="28"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>224</v>
+      <c r="A2" s="28" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>229</v>
+      <c r="A3" s="28" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>234</v>
+      <c r="A4" s="28" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>239</v>
+      <c r="A5" s="28" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>245</v>
+      <c r="A6" s="28" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3235,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3217,11 +3255,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>102</v>
+      <c r="A2" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="11">
         <v>45488</v>
@@ -3232,10 +3270,10 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="11">
         <v>45524</v>
@@ -3246,10 +3284,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="11">
         <v>45560</v>
@@ -3260,10 +3298,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="11">
         <v>45595</v>
@@ -3274,10 +3312,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="11">
         <v>45631</v>
@@ -3288,10 +3326,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="11">
         <v>45667</v>
@@ -3302,10 +3340,10 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="11">
         <v>45703</v>
@@ -3316,10 +3354,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="11">
         <v>45736</v>
@@ -3333,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="11">
         <v>45772</v>
@@ -3344,10 +3382,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="11">
         <v>45807</v>
@@ -3369,272 +3407,276 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="28"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="28">
+        <v>30</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="10">
+      <c r="F2" s="29">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="28">
+        <v>35</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="29">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="28">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E4" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="29">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="28">
+        <v>35</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="29">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="28">
+        <v>30</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="29">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="28">
+        <v>35</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="29">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="28">
+        <v>40</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="29">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="11">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="10">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C9" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="28">
+        <v>45</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="29">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="11">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="10">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C10" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="28">
+        <v>40</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="29">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="11">
-        <v>45488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="10">
-        <v>35</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C11" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="28">
+        <v>45</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="29">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="11">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="10">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C12" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="28">
+        <v>40</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" s="29">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="F6" s="11">
-        <v>45502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" s="10">
-        <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="11">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="10">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="11">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C13" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="28">
         <v>45</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="11">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="10">
-        <v>40</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F10" s="11">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="10">
-        <v>45</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D12" s="10">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F12" s="11">
-        <v>45544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="10">
-        <v>45</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="F13" s="29">
         <v>45551</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3647,7 +3689,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3671,7 +3713,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>39</v>
@@ -3683,12 +3725,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>41</v>
@@ -3700,12 +3742,12 @@
         <v>5</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>43</v>
@@ -3717,12 +3759,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -3734,12 +3776,12 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>47</v>
@@ -3751,12 +3793,12 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>49</v>
@@ -3768,12 +3810,12 @@
         <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>51</v>
@@ -3785,12 +3827,12 @@
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>53</v>
@@ -3802,12 +3844,12 @@
         <v>5</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>39</v>
@@ -3819,12 +3861,12 @@
         <v>5</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>41</v>
@@ -3836,12 +3878,12 @@
         <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>43</v>
@@ -3853,12 +3895,12 @@
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -3870,12 +3912,12 @@
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>47</v>
@@ -3887,12 +3929,12 @@
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>49</v>
@@ -3904,12 +3946,12 @@
         <v>4</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>51</v>
@@ -3921,12 +3963,12 @@
         <v>3</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>53</v>
@@ -3938,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +4014,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="12">
         <v>45474.354166666664</v>
@@ -3983,7 +4025,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="12">
         <v>45476.40625</v>
@@ -3994,7 +4036,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="12">
         <v>45478.430555555555</v>
@@ -4005,7 +4047,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="12">
         <v>45480.496527777781</v>
@@ -4016,7 +4058,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="12">
         <v>45505.4375</v>
@@ -4027,7 +4069,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="12">
         <v>45507.489583333336</v>
@@ -4038,7 +4080,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="12">
         <v>45509.513888888891</v>
@@ -4049,7 +4091,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="12">
         <v>45511.579861111109</v>
@@ -4060,7 +4102,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="12">
         <v>45534.604166666664</v>
@@ -4071,7 +4113,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="12">
         <v>45536.65625</v>
@@ -4082,7 +4124,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="12">
         <v>45538.680555555555</v>
@@ -4093,7 +4135,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="12">
         <v>45540.746527777781</v>
@@ -4104,7 +4146,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="12">
         <v>45550.770833333336</v>
@@ -4115,7 +4157,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="12">
         <v>45552.822916666664</v>
@@ -4126,7 +4168,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="12">
         <v>45554.847222222219</v>
@@ -4137,7 +4179,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="12">
         <v>45556.913194444445</v>
@@ -4245,7 +4287,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4267,7 +4309,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,7 +4320,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4289,7 +4331,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4300,7 +4342,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4311,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4322,7 +4364,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4333,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4344,7 +4386,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4355,7 +4397,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4366,7 +4408,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4377,7 +4419,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4388,7 +4430,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4399,7 +4441,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,7 +4452,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +4468,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4447,7 +4489,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>39</v>
@@ -4461,7 +4503,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>41</v>
@@ -4475,7 +4517,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>43</v>
@@ -4489,7 +4531,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -4503,7 +4545,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>39</v>
@@ -4517,7 +4559,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>41</v>
@@ -4531,7 +4573,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>43</v>
@@ -4545,7 +4587,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -4559,7 +4601,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>39</v>
@@ -4573,7 +4615,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>41</v>
@@ -4587,7 +4629,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>43</v>
@@ -4601,7 +4643,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -4615,7 +4657,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>39</v>
@@ -4629,7 +4671,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>41</v>
@@ -4643,7 +4685,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>43</v>
@@ -4657,7 +4699,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -4671,7 +4713,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>39</v>
@@ -4685,44 +4727,44 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="12">
-        <v>45476.385416666664</v>
+        <v>45478.385416666664</v>
       </c>
       <c r="D19" s="12">
-        <v>45476.447916666664</v>
+        <v>45478.447916666664</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="12">
-        <v>45478.423611111109</v>
+        <v>45483.423611111109</v>
       </c>
       <c r="D20" s="12">
-        <v>45478.486111111109</v>
+        <v>45483.486111111109</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="12">
-        <v>45480.489583333336</v>
+        <v>45542.489583333336</v>
       </c>
       <c r="D21" s="12">
-        <v>45480.552083333336</v>
+        <v>45542.552083333336</v>
       </c>
     </row>
   </sheetData>
@@ -4737,8 +4779,8 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4759,7 +4801,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>39</v>
@@ -4770,7 +4812,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>41</v>
@@ -4781,7 +4823,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>43</v>
@@ -4792,7 +4834,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>45</v>
@@ -4803,7 +4845,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>39</v>
@@ -4814,7 +4856,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>41</v>
@@ -4825,7 +4867,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>43</v>
@@ -4836,7 +4878,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>45</v>
@@ -4847,7 +4889,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>39</v>
@@ -4858,7 +4900,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>41</v>
@@ -4869,7 +4911,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>43</v>
@@ -4880,7 +4922,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>45</v>
@@ -4891,7 +4933,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>39</v>
@@ -4902,7 +4944,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>41</v>
@@ -4913,7 +4955,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>43</v>
@@ -4924,7 +4966,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>45</v>
@@ -4935,156 +4977,156 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="24">
-        <v>45474.354166666664</v>
+        <v>45484.354166666664</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="24">
-        <v>45476.40625</v>
+        <v>45486.40625</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="24">
-        <v>45478.430555555555</v>
+        <v>45488.430555555555</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="24">
-        <v>45480.496527777781</v>
+        <v>45490.496527777781</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="24">
-        <v>45534.614583333336</v>
+        <v>45535.614583333336</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="24">
-        <v>45536.631944444445</v>
+        <v>45546.631944444445</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="24">
-        <v>45538.690972222219</v>
+        <v>45548.690972222219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="24">
-        <v>45540.722222222219</v>
+        <v>45550.722222222219</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="24">
-        <v>45550.788194444445</v>
+        <v>45560.788194444445</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="24">
-        <v>45552.805555555555</v>
+        <v>45562.805555555555</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="24">
-        <v>45554.864583333336</v>
+        <v>45564.864583333336</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="24">
-        <v>45556.881944444445</v>
+        <v>45565.881944444445</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="24">
-        <v>45474.371527777781</v>
+        <v>45504.371527777781</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="24">
-        <v>45476.388888888891</v>
+        <v>45486.388888888891</v>
       </c>
     </row>
   </sheetData>
@@ -7061,7 +7103,7 @@
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7150,7 +7192,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7186,22 +7228,22 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="G2" s="21">
         <v>45413</v>
@@ -7212,22 +7254,22 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="G3" s="21">
         <v>45458</v>
@@ -7238,22 +7280,22 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="G4" s="21">
         <v>45493</v>
@@ -7264,22 +7306,22 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="G5" s="21">
         <v>45514</v>
@@ -7290,22 +7332,22 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>249</v>
       </c>
       <c r="G6" s="21">
         <v>45540</v>
@@ -7316,22 +7358,22 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>252</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="G7" s="21">
         <v>45577</v>
@@ -7342,22 +7384,22 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="G8" s="21">
         <v>45614</v>
@@ -7368,22 +7410,22 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>261</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>262</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>264</v>
       </c>
       <c r="G9" s="21">
         <v>45664</v>
@@ -7394,22 +7436,22 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>270</v>
       </c>
       <c r="G10" s="21">
         <v>45703</v>
@@ -7420,22 +7462,22 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>272</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>164</v>
       </c>
       <c r="E11" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>274</v>
       </c>
       <c r="G11" s="21">
         <v>45736</v>
@@ -7446,22 +7488,22 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="G12" s="21">
         <v>45772</v>
@@ -7472,22 +7514,22 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>152</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>283</v>
       </c>
       <c r="G13" s="21">
         <v>45807</v>
@@ -7498,22 +7540,22 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="G14" s="21">
         <v>45818</v>
@@ -7527,19 +7569,19 @@
         <v>102</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>291</v>
       </c>
       <c r="G15" s="21">
         <v>45853</v>
@@ -7550,22 +7592,22 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="G16" s="21">
         <v>45889</v>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/tk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/pacilflix-B-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC97A18-E913-4F4B-B232-5368A9C298D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9F042-29D6-7445-8708-A505C82CF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="403">
   <si>
     <t>username</t>
   </si>
@@ -1247,6 +1247,9 @@
   </si>
   <si>
     <t>60b9e2aa-1467-44db-b5de-451d654355e2</t>
+  </si>
+  <si>
+    <t>negara_asal</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1436,7 +1439,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1451,9 +1453,6 @@
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1681,8 +1680,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1698,95 +1697,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>244</v>
+      <c r="C2" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>233</v>
+      <c r="C3" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>238</v>
+      <c r="C4" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>244</v>
+      <c r="C5" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>244</v>
+      <c r="C6" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>233</v>
+      <c r="C7" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>238</v>
+      <c r="C8" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>244</v>
+      <c r="C9" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1816,247 +1815,247 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B32" t="s">
@@ -2064,7 +2063,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>228</v>
       </c>
       <c r="B33" t="s">
@@ -2072,7 +2071,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>233</v>
       </c>
       <c r="B34" t="s">
@@ -2080,7 +2079,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B35" t="s">
@@ -2088,7 +2087,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>244</v>
       </c>
       <c r="B36" t="s">
@@ -2096,7 +2095,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>249</v>
       </c>
       <c r="B37" t="s">
@@ -2104,7 +2103,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B38" t="s">
@@ -2112,7 +2111,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>259</v>
       </c>
       <c r="B39" t="s">
@@ -2120,7 +2119,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B40" t="s">
@@ -2128,7 +2127,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>397</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2136,7 +2135,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>254</v>
       </c>
       <c r="B42" t="s">
@@ -2144,7 +2143,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>395</v>
       </c>
       <c r="B43" t="s">
@@ -2152,7 +2151,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>396</v>
       </c>
       <c r="B44" t="s">
@@ -2160,7 +2159,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2168,7 +2167,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>394</v>
       </c>
       <c r="B46" t="s">
@@ -2176,7 +2175,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B47" t="s">
@@ -2184,7 +2183,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>228</v>
       </c>
       <c r="B48" t="s">
@@ -2192,7 +2191,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>233</v>
       </c>
       <c r="B49" t="s">
@@ -2200,7 +2199,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B50" t="s">
@@ -2208,7 +2207,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>244</v>
       </c>
       <c r="B51" t="s">
@@ -2216,8 +2215,8 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2246,282 +2245,282 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2552,82 +2551,82 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2655,77 +2654,77 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2747,7 +2746,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="20"/>
+    <col min="1" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2771,402 +2770,402 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>45458</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>120</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>50000</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>45474</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>45493</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>90</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>40000</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>45514</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>45509</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>110</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>60000</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>45529</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>45534</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>100</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>55000</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>45550</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>45550</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>95</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>45000</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>45566</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>45570</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>105</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>58000</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>45585</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>45597</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>80</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>35000</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>45611</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>45616</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>115</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>62000</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>45631</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>45636</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>125</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>68000</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>45651</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>45296</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>90</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>40000</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>45677</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>45323</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>105</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>55000</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>45703</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>45342</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>110</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>60000</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>45721</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>44995</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>95</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>45000</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>45741</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>45387</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>85</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>37000</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>45767</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>45402</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>120</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>62000</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>45782</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>45422</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>110</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>58000</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>45802</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>45448</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>100</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>53000</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>45828</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>45463</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>95</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>48000</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>45843</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>45478</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>115</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>65000</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>45858</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>45307</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>112</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>80000</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <v>45535</v>
       </c>
     </row>
@@ -3183,42 +3182,42 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="28"/>
+    <col min="1" max="16384" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3255,142 +3254,142 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>45488</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>45524</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>45560</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>45595</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>45631</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>45667</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>45703</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>45736</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>45772</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>45807</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>65</v>
       </c>
     </row>
@@ -3412,266 +3411,266 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="28"/>
+    <col min="1" max="16384" width="12.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="24">
         <v>30</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="25">
         <v>45474</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="24">
         <v>35</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>45481</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>30</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="25">
         <v>45488</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>35</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="25">
         <v>45495</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>30</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="25">
         <v>45502</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>35</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <v>45509</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <v>40</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="25">
         <v>45516</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>45</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <v>45523</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <v>40</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <v>45530</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="24">
         <v>45</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <v>45537</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <v>40</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="25">
         <v>45544</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="24">
         <v>45</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="25">
         <v>45551</v>
       </c>
     </row>
@@ -3712,274 +3711,274 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>45474.354166666664</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>45476.40625</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>45478.430555555555</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>45480.496527777781</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>45482.548611111109</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>45484.600694444445</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>45486.652777777781</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>45488.704861111109</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>45505.4375</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>45507.489583333336</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>45509.513888888891</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>45511.579861111109</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>45513.631944444445</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>5</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>45515.684027777781</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>45517.736111111109</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>45519.788194444445</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>5</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4013,178 +4012,178 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>45474.354166666664</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>45476.40625</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>45478.430555555555</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>45480.496527777781</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45505.4375</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>45507.489583333336</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>45509.513888888891</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>45511.579861111109</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>45534.604166666664</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>45536.65625</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>45538.680555555555</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>45540.746527777781</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>45550.770833333336</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>45552.822916666664</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>45554.847222222219</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>45556.913194444445</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4280,178 +4279,178 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>45474.354166666664</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>45476.40625</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>45478.430555555555</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>45480.496527777781</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>45505.4375</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>45507.489583333336</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>45509.513888888891</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>45511.579861111109</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>45534.604166666664</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>45536.65625</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>45538.680555555555</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>45540.746527777781</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>45550.770833333336</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>45552.822916666664</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>45554.847222222219</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>45556.913194444445</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4488,282 +4487,282 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>45474.333333333336</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45474.395833333336</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>45476.385416666664</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45476.447916666664</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>45478.423611111109</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45478.486111111109</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>45480.489583333336</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45480.552083333336</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>45505.430555555555</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45505.493055555555</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>45507.479166666664</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45507.541666666664</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>45509.510416666664</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45509.572916666664</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>45511.569444444445</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45511.631944444445</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>45534.590277777781</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45534.652777777781</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>45536.642361111109</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45536.704861111109</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>45538.673611111109</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45538.736111111109</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>45540.732638888891</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>45540.795138888891</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>45550.763888888891</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45550.826388888891</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>45552.815972222219</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45552.878472222219</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>45554.854166666664</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45554.916666666664</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>45556.90625</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45556.96875</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>45475.333333333336</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45475.395833333336</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>45478.385416666664</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45478.447916666664</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>45483.423611111109</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45483.486111111109</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>45542.489583333336</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>45542.552083333336</v>
       </c>
     </row>
@@ -4784,9 +4783,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="12.6640625" style="22"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -4800,332 +4796,332 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="11">
         <v>45474.354166666664</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="11">
         <v>45476.40625</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="11">
         <v>45478.430555555555</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="11">
         <v>45480.496527777781</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="11">
         <v>45505.4375</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="11">
         <v>45507.489583333336</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="11">
         <v>45509.513888888891</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="11">
         <v>45511.579861111109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="11">
         <v>45534.604166666664</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="11">
         <v>45536.65625</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="11">
         <v>45538.680555555555</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="11">
         <v>45540.746527777781</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="11">
         <v>45550.770833333336</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="11">
         <v>45552.822916666664</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="11">
         <v>45554.847222222219</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="11">
         <v>45556.913194444445</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="11">
         <v>45484.354166666664</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="11">
         <v>45486.40625</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="11">
         <v>45488.430555555555</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="11">
         <v>45490.496527777781</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="11">
         <v>45535.614583333336</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="11">
         <v>45546.631944444445</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="11">
         <v>45548.690972222219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="11">
         <v>45550.722222222219</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="11">
         <v>45560.788194444445</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="11">
         <v>45562.805555555555</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="11">
         <v>45564.864583333336</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="11">
         <v>45565.881944444445</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="11">
         <v>45504.371527777781</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="11">
         <v>45486.388888888891</v>
       </c>
     </row>
@@ -5180,7 +5176,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5188,34 +5184,34 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5258,482 +5254,482 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>45383</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>45412</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>45384.3440162037</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>45387</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>45407</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>45388.521354166667</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>45392</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>45412</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>45393.597650462965</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>45385</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>45410</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>45386.406388888892</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>45397</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>45412</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>45398.705196759256</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>45389</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>45412</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>45390.423819444448</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>45384</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>45412</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>45385.476087962961</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>45402</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>45412</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>45403.570092592592</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>45392</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>45412</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>45393.3440162037</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>45384</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>45412</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>45385.521354166667</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>45394</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>45412</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>45395.597650462965</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>45390</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>45412</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>45391.406388888892</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>45400</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>45412</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>45401.705196759256</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>45387</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>45412</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>45388.423819444448</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>45395</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>45412</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>45396.476087962961</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>45407</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>45412</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>45408.570092592592</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>45397</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>45412</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>45398.3440162037</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>45386</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>45412</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>45387.521354166667</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>45396</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>45412</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>45397.597650462965</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>45388</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>45412</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>45389.406388888892</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>45403</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>45412</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>45404.705196759256</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>45391</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>45412</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>45392.423819444448</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>45399</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>45412</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>45400.476087962961</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>45404</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>45412</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>45405.570092592592</v>
       </c>
     </row>
@@ -5770,940 +5766,940 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>0</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>0</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>0</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>0</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>0</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>0</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>0</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>0</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>1</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>0</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>1</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>0</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>1</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>0</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>0</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>1</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>0</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>1</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>0</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>1</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>0</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>1</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>0</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>1</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>0</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>0</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>1</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>0</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>1</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>0</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>1</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>0</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>1</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>0</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>1</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>0</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>1</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>0</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>1</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>0</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>1</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>0</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>1</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>0</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6725,161 +6721,161 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="15"/>
+    <col min="1" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6907,202 +6903,202 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7130,52 +7126,52 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7197,7 +7193,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="20"/>
+    <col min="1" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7227,392 +7223,392 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>45413</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>45458</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>45493</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>45514</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>45540</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>45577</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>45614</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>45664</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>45703</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>45736</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>45772</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>45807</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>45818</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>45853</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>45889</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>126</v>
       </c>
     </row>

--- a/DATASET PACILFLIX.xlsx
+++ b/DATASET PACILFLIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adindanurdzykra/Documents/TK3_B_2/pacilflix-B-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9F042-29D6-7445-8708-A505C82CF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707B450D-839E-5A42-B176-288F743EEB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PENGGUNA" sheetId="1" r:id="rId1"/>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5745,8 +5745,8 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6716,7 +6716,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6892,7 +6892,7 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
